--- a/spliced/walkingToRunning/2023-03-27_19-42-51/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-42-51/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>-1.017420401939681</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-40.18527779212365</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-12.29963522690993</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.489131450653076</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-5.963009345225885</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-38.13061856000844</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21.80784027393036</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6.794984866411211</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-17.97448307428637</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.985512146583247</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8.772580513587364</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.704863694997934</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.532207745772141</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>15.409985371125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-21.02941689124464</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.300734495505285</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29.99191743899604</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-16.15106448149102</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.187779292082201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>43.31018800001878</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-13.67232219989484</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.019487449756035</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47.68574269612633</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-58.8819274902343</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.092501203219018</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27.69281722337806</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-49.70874527173221</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14.84765016115646</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.377501120934119</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.849835469172549</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1248559951782222</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
